--- a/tutorial/CovidContagion/data/input/id_health_state.xlsx
+++ b/tutorial/CovidContagion/data/input/id_health_state.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/ABM4ALL/Melodie/tutorial/CovidContagion/data/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818C41A1-9AF4-304E-9085-E58C6562E4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8769E46C-9FB5-3146-8709-A31E1C449A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1880" windowWidth="30240" windowHeight="12980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -356,7 +356,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
